--- a/input/Crops.xlsx
+++ b/input/Crops.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19433C-3769-4CF2-8588-88128018A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE79D5C-0968-4AE4-A2B5-6E9CAFF3D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10BA0F22-5523-9E4B-AC34-05FDBA276E53}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>crop</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Average Height (cm)</t>
+  </si>
+  <si>
+    <t>min demand (kg)</t>
+  </si>
+  <si>
+    <t>max demand (kg)</t>
   </si>
 </sst>
 </file>
@@ -303,10 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DD835-C766-5342-806B-D1F450782E93}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +640,7 @@
     <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="68" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="68" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
@@ -662,8 +668,14 @@
       <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -691,8 +703,16 @@
       <c r="I2" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J2" s="9">
+        <f>1.5*F2</f>
+        <v>8.25</v>
+      </c>
+      <c r="K2">
+        <f>1.5*6*F2</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -720,8 +740,16 @@
       <c r="I3" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J19" si="0">1.5*F3</f>
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="1">1.5*6*F3</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -749,8 +777,16 @@
       <c r="I4" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -778,8 +814,16 @@
       <c r="I5" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -807,8 +851,16 @@
       <c r="I6" s="11">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -836,8 +888,16 @@
       <c r="I7" s="11">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -865,8 +925,16 @@
       <c r="I8" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -894,8 +962,16 @@
       <c r="I9" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -923,8 +999,16 @@
       <c r="I10" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -952,8 +1036,16 @@
       <c r="I11" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -981,8 +1073,16 @@
       <c r="I12" s="11">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1008,10 +1108,18 @@
         <v>5.25</v>
       </c>
       <c r="I13" s="11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1039,8 +1147,16 @@
       <c r="I14" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1068,8 +1184,16 @@
       <c r="I15" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1097,8 +1221,16 @@
       <c r="I16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1126,8 +1258,16 @@
       <c r="I17" s="11">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1155,8 +1295,16 @@
       <c r="I18" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1184,8 +1332,16 @@
       <c r="I19" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.35">
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1208,6 +1364,7 @@
       <c r="I20" s="11">
         <v>0</v>
       </c>
+      <c r="J20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/input/Crops.xlsx
+++ b/input/Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE79D5C-0968-4AE4-A2B5-6E9CAFF3D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458586FE-2753-4710-83F7-40DEA492F565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10BA0F22-5523-9E4B-AC34-05FDBA276E53}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -708,8 +708,8 @@
         <v>8.25</v>
       </c>
       <c r="K2">
-        <f>1.5*6*F2</f>
-        <v>49.5</v>
+        <f>1.5*13*F2</f>
+        <v>107.25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -745,8 +745,8 @@
         <v>6</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K19" si="1">1.5*6*F3</f>
-        <v>36</v>
+        <f t="shared" ref="K3:K19" si="1">1.5*13*F3</f>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -783,7 +783,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -820,7 +820,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -857,7 +857,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>31.5</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -931,7 +931,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -968,7 +968,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>58.5</v>
+        <v>126.75</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>40.5</v>
+        <v>87.75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.35">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.35">
